--- a/Planning/csapatsorsolás.xlsx
+++ b/Planning/csapatsorsolás.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Csabi\Documents\Személyes\Tanulmányok\ELTE IK\Prog Inf BsC\5.félév\Szakdolgozat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Csabi\Documents\Személyes\Tanulmányok\ELTE IK\Prog Inf BsC\5.félév\Szakdolgozat\QuizProgram_LauncherConcept\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E14253-EDB0-4C2B-93F0-6E24CF2B0516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65825BE2-1588-4D8C-877E-7952B8D9CE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="48">
   <si>
     <t>x</t>
   </si>
@@ -83,6 +83,102 @@
   </si>
   <si>
     <t>True</t>
+  </si>
+  <si>
+    <t>9,10,11,12</t>
+  </si>
+  <si>
+    <t>1,5,2,6</t>
+  </si>
+  <si>
+    <t>3,4,7,9</t>
+  </si>
+  <si>
+    <t>10,8,11,12</t>
+  </si>
+  <si>
+    <t>1,7,2,8</t>
+  </si>
+  <si>
+    <t>3,5,4,6</t>
+  </si>
+  <si>
+    <t>1,12,5,11</t>
+  </si>
+  <si>
+    <t>E(1),U(12),E(5),U(11)</t>
+  </si>
+  <si>
+    <t>2,10,3,9</t>
+  </si>
+  <si>
+    <t>E(2),U(10),E(3),U(9)</t>
+  </si>
+  <si>
+    <t>E(4),U(8), E(6)</t>
+  </si>
+  <si>
+    <t>a 7-es megmaradt</t>
+  </si>
+  <si>
+    <t>4,8,6,7</t>
+  </si>
+  <si>
+    <t>12,6,11,2</t>
+  </si>
+  <si>
+    <t>U(12),E(6),U(11),E(2)</t>
+  </si>
+  <si>
+    <t>10,1,9,4</t>
+  </si>
+  <si>
+    <t>U(10),E(1),U(9),E(4)</t>
+  </si>
+  <si>
+    <t>8,7,3,5</t>
+  </si>
+  <si>
+    <t>E(8),U(7),E(3)</t>
+  </si>
+  <si>
+    <t>az 5-ös megmaradt</t>
+  </si>
+  <si>
+    <t>1,5,9,2</t>
+  </si>
+  <si>
+    <t>3,6,10,4</t>
+  </si>
+  <si>
+    <t>7,8,11,12</t>
+  </si>
+  <si>
+    <t>1,6,11,3</t>
+  </si>
+  <si>
+    <t>2,7,10,4</t>
+  </si>
+  <si>
+    <t>5,8,9,12</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>1,4,7,10</t>
+  </si>
+  <si>
+    <t>2,5,8,11</t>
+  </si>
+  <si>
+    <t>3,6,9,12</t>
+  </si>
+  <si>
+    <t>1,5,9,12</t>
+  </si>
+  <si>
+    <t>í</t>
   </si>
 </sst>
 </file>
@@ -90,7 +186,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -110,7 +206,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,8 +219,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -141,23 +243,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF4747"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -173,10 +296,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>457201</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>134815</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>15241</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>50995</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3053862" cy="1125693"/>
     <xdr:sp macro="" textlink="">
@@ -192,7 +315,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4130041" y="1414975"/>
+          <a:off x="289561" y="4074355"/>
           <a:ext cx="3053862" cy="1125693"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -229,6 +352,179 @@
             <a:t> csapatot, és berakjuk a csoportba. Ez után a csoporthoz legkésőbb hozzáadott csapatra megnézzük, hogy melyik az a legkevesebbszer előforduló csapat, amivel ő legkevesebbbszer játszott, és berakjuk a csapatba</a:t>
           </a:r>
           <a:endParaRPr lang="hu-HU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>150055</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3053862" cy="1470146"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Szövegdoboz 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82A22A0A-3177-4675-B60F-6FAE07D5260F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5905501" y="4173415"/>
+          <a:ext cx="3053862" cy="1470146"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="hu-HU" sz="1100"/>
+            <a:t>Vesszük a legkevesebbszer előforduló</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="hu-HU" sz="1100" baseline="0"/>
+            <a:t> csapatot, és berakjuk a csoportba. Ez után a csoporthoz legkésőbb hozzáadott csapatra megnézzük, hogy melyik az a legkevesebbszer előforduló csapat, amivel ő legkevesebbbszer játszott, és berakjuk a csapatba Ha más alapján nem tudunk dönteni, akkor elöször a sorrendben elsó, majd az utolsót választjuk felváltva</a:t>
+          </a:r>
+          <a:endParaRPr lang="hu-HU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>411481</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28135</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3053862" cy="2159053"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Szövegdoboz 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F33E84B-0861-4E2F-88D5-40727CE7AB8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11509787" y="4151900"/>
+          <a:ext cx="3053862" cy="2159053"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="hu-HU" sz="1100"/>
+            <a:t>Vesszük a legkevesebbszer előforduló</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="hu-HU" sz="1100" baseline="0"/>
+            <a:t> csapatot, és berakjuk a körbe. Ez után megnézzük, hogy melyik az a legkevesebbszer előforduló csapat, amire </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="hu-HU" sz="1100" b="1" i="1" baseline="0"/>
+            <a:t>M</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="hu-HU" sz="1100" b="0" i="0" baseline="0"/>
+            <a:t> minimális (ha mind egyenlő, akkor azt tesszük be, ahol J maximuma a legkisebb)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="hu-HU" sz="1100" baseline="0"/>
+            <a:t>, és berakjuk a csoportba. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="hu-HU" sz="1100" b="1" i="1" baseline="0"/>
+            <a:t>J</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="hu-HU" sz="1100" b="0" i="0" baseline="0"/>
+            <a:t>J(cs1,cs2) = cs1 csapat cs2 ellen játszott meccseinek száma</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="hu-HU" sz="1100" b="1" i="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="hu-HU" sz="1100" b="1" i="1" baseline="0"/>
+            <a:t>M</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="hu-HU" sz="1100" b="0" i="0" baseline="0"/>
+            <a:t>M(kör, cs) = ∑ (J( cs</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="hu-HU" sz="1100" b="0" i="0" baseline="-25000"/>
+            <a:t>i</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="hu-HU" sz="1100" b="0" i="0" baseline="0"/>
+            <a:t>, cs ))</a:t>
+          </a:r>
+          <a:endParaRPr lang="hu-HU" sz="1100" b="0" i="0"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -500,18 +796,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:BZ23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="BH9" sqref="BH9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="10" width="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="10" width="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="6"/>
+    <col min="13" max="13" width="3" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="22" width="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="38" width="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="41" width="3" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="3" bestFit="1" customWidth="1"/>
+    <col min="48" max="56" width="2" bestFit="1" customWidth="1"/>
+    <col min="57" max="59" width="3" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="5.77734375" customWidth="1"/>
+    <col min="63" max="63" width="5.6640625" customWidth="1"/>
+    <col min="64" max="65" width="3" bestFit="1" customWidth="1"/>
+    <col min="66" max="74" width="2" bestFit="1" customWidth="1"/>
+    <col min="75" max="77" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:78" x14ac:dyDescent="0.3">
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -539,8 +851,159 @@
       <c r="J1" s="1">
         <v>9</v>
       </c>
+      <c r="N1" s="1">
+        <v>1</v>
+      </c>
+      <c r="O1" s="1">
+        <v>2</v>
+      </c>
+      <c r="P1" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>4</v>
+      </c>
+      <c r="R1" s="1">
+        <v>5</v>
+      </c>
+      <c r="S1" s="1">
+        <v>6</v>
+      </c>
+      <c r="T1" s="1">
+        <v>7</v>
+      </c>
+      <c r="U1" s="1">
+        <v>8</v>
+      </c>
+      <c r="V1" s="1">
+        <v>9</v>
+      </c>
+      <c r="W1" s="1">
+        <v>10</v>
+      </c>
+      <c r="X1" s="1">
+        <v>11</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>12</v>
+      </c>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>6</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>7</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>8</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>9</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>10</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>11</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>12</v>
+      </c>
+      <c r="AU1" s="7"/>
+      <c r="AV1" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>5</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>6</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>7</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>8</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>9</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>10</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>11</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>12</v>
+      </c>
+      <c r="BI1" s="11"/>
+      <c r="BJ1" s="11"/>
+      <c r="BK1" s="11"/>
+      <c r="BL1" s="11"/>
+      <c r="BM1" s="7"/>
+      <c r="BN1" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO1" s="1">
+        <v>2</v>
+      </c>
+      <c r="BP1" s="1">
+        <v>3</v>
+      </c>
+      <c r="BQ1" s="1">
+        <v>4</v>
+      </c>
+      <c r="BR1" s="1">
+        <v>5</v>
+      </c>
+      <c r="BS1" s="1">
+        <v>6</v>
+      </c>
+      <c r="BT1" s="1">
+        <v>7</v>
+      </c>
+      <c r="BU1" s="1">
+        <v>8</v>
+      </c>
+      <c r="BV1" s="1">
+        <v>9</v>
+      </c>
+      <c r="BW1" s="1">
+        <v>10</v>
+      </c>
+      <c r="BX1" s="1">
+        <v>11</v>
+      </c>
+      <c r="BY1" s="1">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -568,8 +1031,140 @@
       <c r="J2">
         <v>2</v>
       </c>
+      <c r="M2" s="8">
+        <v>1</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="9">
+        <v>3</v>
+      </c>
+      <c r="P2" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="10">
+        <v>1</v>
+      </c>
+      <c r="R2" s="10">
+        <v>1</v>
+      </c>
+      <c r="S2" s="10">
+        <v>1</v>
+      </c>
+      <c r="T2" s="10">
+        <v>1</v>
+      </c>
+      <c r="U2" s="10">
+        <v>1</v>
+      </c>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="AC2" s="8">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="9">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="10">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="10"/>
+      <c r="AJ2" s="10"/>
+      <c r="AK2" s="10"/>
+      <c r="AL2" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="9">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="9">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="9">
+        <v>1</v>
+      </c>
+      <c r="AU2" s="8">
+        <v>1</v>
+      </c>
+      <c r="AV2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="9">
+        <v>2</v>
+      </c>
+      <c r="AX2" s="9">
+        <v>2</v>
+      </c>
+      <c r="AY2" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ2" s="10">
+        <v>1</v>
+      </c>
+      <c r="BA2" s="10">
+        <v>1</v>
+      </c>
+      <c r="BB2" s="10"/>
+      <c r="BC2" s="10"/>
+      <c r="BD2" s="9">
+        <v>1</v>
+      </c>
+      <c r="BE2" s="9"/>
+      <c r="BF2" s="9">
+        <v>1</v>
+      </c>
+      <c r="BG2" s="9"/>
+      <c r="BI2" s="12"/>
+      <c r="BJ2" s="12"/>
+      <c r="BK2" s="12"/>
+      <c r="BL2" s="12"/>
+      <c r="BM2" s="8">
+        <v>1</v>
+      </c>
+      <c r="BN2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="BP2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="BQ2" s="10">
+        <v>1</v>
+      </c>
+      <c r="BR2" s="10">
+        <v>1</v>
+      </c>
+      <c r="BS2" s="10"/>
+      <c r="BT2" s="10">
+        <v>1</v>
+      </c>
+      <c r="BU2" s="10"/>
+      <c r="BV2" s="10">
+        <v>1</v>
+      </c>
+      <c r="BW2" s="9">
+        <v>1</v>
+      </c>
+      <c r="BX2" s="9"/>
+      <c r="BY2" s="10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -594,8 +1189,130 @@
       <c r="J3">
         <v>1</v>
       </c>
+      <c r="M3" s="8">
+        <v>2</v>
+      </c>
+      <c r="N3" s="9">
+        <v>3</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>1</v>
+      </c>
+      <c r="R3" s="10">
+        <v>1</v>
+      </c>
+      <c r="S3" s="10">
+        <v>1</v>
+      </c>
+      <c r="T3" s="10">
+        <v>1</v>
+      </c>
+      <c r="U3" s="10">
+        <v>1</v>
+      </c>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="AC3" s="8">
+        <v>2</v>
+      </c>
+      <c r="AD3" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="9">
+        <v>2</v>
+      </c>
+      <c r="AG3" s="10">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="9">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="10">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="10">
+        <v>1</v>
+      </c>
+      <c r="AU3" s="8">
+        <v>2</v>
+      </c>
+      <c r="AV3" s="9">
+        <v>2</v>
+      </c>
+      <c r="AW3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="9">
+        <v>1</v>
+      </c>
+      <c r="AY3" s="10">
+        <v>2</v>
+      </c>
+      <c r="AZ3" s="10">
+        <v>1</v>
+      </c>
+      <c r="BA3" s="10"/>
+      <c r="BB3" s="10">
+        <v>1</v>
+      </c>
+      <c r="BC3" s="10"/>
+      <c r="BD3" s="9">
+        <v>1</v>
+      </c>
+      <c r="BE3" s="10">
+        <v>1</v>
+      </c>
+      <c r="BF3" s="10"/>
+      <c r="BG3" s="10"/>
+      <c r="BM3" s="8">
+        <v>2</v>
+      </c>
+      <c r="BN3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="BO3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="BQ3" s="10"/>
+      <c r="BR3" s="10">
+        <v>1</v>
+      </c>
+      <c r="BS3" s="10"/>
+      <c r="BT3" s="10"/>
+      <c r="BU3" s="10">
+        <v>1</v>
+      </c>
+      <c r="BV3" s="9"/>
+      <c r="BW3" s="10"/>
+      <c r="BX3" s="10">
+        <v>1</v>
+      </c>
+      <c r="BY3" s="10"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -620,8 +1337,128 @@
       <c r="H4">
         <v>2</v>
       </c>
+      <c r="M4" s="8">
+        <v>3</v>
+      </c>
+      <c r="N4" s="9">
+        <v>1</v>
+      </c>
+      <c r="O4" s="9">
+        <v>1</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>3</v>
+      </c>
+      <c r="R4" s="10">
+        <v>1</v>
+      </c>
+      <c r="S4" s="10">
+        <v>1</v>
+      </c>
+      <c r="T4" s="9">
+        <v>1</v>
+      </c>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9">
+        <v>1</v>
+      </c>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="AC4" s="8">
+        <v>3</v>
+      </c>
+      <c r="AD4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="9">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="10">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="9"/>
+      <c r="AO4" s="9"/>
+      <c r="AU4" s="8">
+        <v>3</v>
+      </c>
+      <c r="AV4" s="9">
+        <v>2</v>
+      </c>
+      <c r="AW4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AX4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="10">
+        <v>2</v>
+      </c>
+      <c r="AZ4" s="10"/>
+      <c r="BA4" s="10">
+        <v>2</v>
+      </c>
+      <c r="BB4" s="10"/>
+      <c r="BC4" s="10"/>
+      <c r="BD4" s="9"/>
+      <c r="BE4" s="9">
+        <v>1</v>
+      </c>
+      <c r="BF4" s="9">
+        <v>1</v>
+      </c>
+      <c r="BG4" s="9"/>
+      <c r="BM4" s="8">
+        <v>3</v>
+      </c>
+      <c r="BN4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="BO4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="BP4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ4" s="10"/>
+      <c r="BR4" s="10"/>
+      <c r="BS4" s="10">
+        <v>1</v>
+      </c>
+      <c r="BT4" s="10"/>
+      <c r="BU4" s="10"/>
+      <c r="BV4" s="9">
+        <v>1</v>
+      </c>
+      <c r="BW4" s="9"/>
+      <c r="BX4" s="9"/>
+      <c r="BY4" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -649,8 +1486,128 @@
       <c r="J5">
         <v>1</v>
       </c>
+      <c r="M5" s="8">
+        <v>4</v>
+      </c>
+      <c r="N5" s="10">
+        <v>1</v>
+      </c>
+      <c r="O5" s="10">
+        <v>1</v>
+      </c>
+      <c r="P5" s="10">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="R5" s="10">
+        <v>1</v>
+      </c>
+      <c r="S5" s="10">
+        <v>1</v>
+      </c>
+      <c r="T5" s="9">
+        <v>1</v>
+      </c>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9">
+        <v>1</v>
+      </c>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="AC5" s="8">
+        <v>4</v>
+      </c>
+      <c r="AD5" s="10">
+        <v>2</v>
+      </c>
+      <c r="AE5" s="10">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="10">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="10">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="10">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="10">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="9"/>
+      <c r="AO5" s="9"/>
+      <c r="AU5" s="8">
+        <v>4</v>
+      </c>
+      <c r="AV5" s="10">
+        <v>1</v>
+      </c>
+      <c r="AW5" s="10">
+        <v>2</v>
+      </c>
+      <c r="AX5" s="10">
+        <v>2</v>
+      </c>
+      <c r="AY5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="10"/>
+      <c r="BA5" s="10">
+        <v>1</v>
+      </c>
+      <c r="BB5" s="10">
+        <v>1</v>
+      </c>
+      <c r="BC5" s="10"/>
+      <c r="BD5" s="10"/>
+      <c r="BE5" s="10">
+        <v>2</v>
+      </c>
+      <c r="BF5" s="9"/>
+      <c r="BG5" s="9"/>
+      <c r="BM5" s="8">
+        <v>4</v>
+      </c>
+      <c r="BN5" s="10">
+        <v>1</v>
+      </c>
+      <c r="BO5" s="10"/>
+      <c r="BP5" s="10"/>
+      <c r="BQ5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="BS5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="BT5" s="10">
+        <v>1</v>
+      </c>
+      <c r="BU5" s="10"/>
+      <c r="BV5" s="10"/>
+      <c r="BW5" s="10">
+        <v>1</v>
+      </c>
+      <c r="BX5" s="9"/>
+      <c r="BY5" s="9"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -678,8 +1635,134 @@
       <c r="J6">
         <v>1</v>
       </c>
+      <c r="M6" s="8">
+        <v>5</v>
+      </c>
+      <c r="N6" s="10">
+        <v>1</v>
+      </c>
+      <c r="O6" s="10">
+        <v>1</v>
+      </c>
+      <c r="P6" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>1</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="S6" s="9">
+        <v>3</v>
+      </c>
+      <c r="T6" s="9">
+        <v>1</v>
+      </c>
+      <c r="U6" s="9">
+        <v>1</v>
+      </c>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="AC6" s="8">
+        <v>5</v>
+      </c>
+      <c r="AD6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="9">
+        <v>2</v>
+      </c>
+      <c r="AK6" s="9">
+        <v>2</v>
+      </c>
+      <c r="AL6" s="9"/>
+      <c r="AM6" s="9"/>
+      <c r="AN6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AU6" s="8">
+        <v>5</v>
+      </c>
+      <c r="AV6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="10"/>
+      <c r="AY6" s="10"/>
+      <c r="AZ6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="9">
+        <v>1</v>
+      </c>
+      <c r="BB6" s="9">
+        <v>1</v>
+      </c>
+      <c r="BC6" s="9">
+        <v>2</v>
+      </c>
+      <c r="BD6" s="10">
+        <v>2</v>
+      </c>
+      <c r="BE6" s="9"/>
+      <c r="BF6" s="10"/>
+      <c r="BG6" s="10">
+        <v>1</v>
+      </c>
+      <c r="BM6" s="8">
+        <v>5</v>
+      </c>
+      <c r="BN6" s="10">
+        <v>1</v>
+      </c>
+      <c r="BO6" s="10">
+        <v>1</v>
+      </c>
+      <c r="BP6" s="10"/>
+      <c r="BQ6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="BR6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="BT6" s="9"/>
+      <c r="BU6" s="9">
+        <v>1</v>
+      </c>
+      <c r="BV6" s="10">
+        <v>1</v>
+      </c>
+      <c r="BW6" s="9"/>
+      <c r="BX6" s="10">
+        <v>1</v>
+      </c>
+      <c r="BY6" s="10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -707,8 +1790,122 @@
       <c r="J7">
         <v>1</v>
       </c>
+      <c r="M7" s="8">
+        <v>6</v>
+      </c>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="9">
+        <v>3</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="T7" s="9">
+        <v>1</v>
+      </c>
+      <c r="U7" s="9">
+        <v>1</v>
+      </c>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="AC7" s="8">
+        <v>6</v>
+      </c>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="10">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="10">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="9">
+        <v>2</v>
+      </c>
+      <c r="AK7" s="9">
+        <v>2</v>
+      </c>
+      <c r="AL7" s="9"/>
+      <c r="AM7" s="9"/>
+      <c r="AN7" s="10">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="10">
+        <v>1</v>
+      </c>
+      <c r="AU7" s="8">
+        <v>6</v>
+      </c>
+      <c r="AV7" s="10">
+        <v>1</v>
+      </c>
+      <c r="AW7" s="10"/>
+      <c r="AX7" s="10">
+        <v>2</v>
+      </c>
+      <c r="AY7" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ7" s="9">
+        <v>1</v>
+      </c>
+      <c r="BA7" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="9">
+        <v>1</v>
+      </c>
+      <c r="BC7" s="9">
+        <v>1</v>
+      </c>
+      <c r="BD7" s="9"/>
+      <c r="BE7" s="10">
+        <v>1</v>
+      </c>
+      <c r="BF7" s="10">
+        <v>1</v>
+      </c>
+      <c r="BG7" s="10"/>
+      <c r="BM7" s="8">
+        <v>6</v>
+      </c>
+      <c r="BN7" s="10"/>
+      <c r="BO7" s="10"/>
+      <c r="BP7" s="10">
+        <v>1</v>
+      </c>
+      <c r="BQ7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="BR7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="BS7" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT7" s="9"/>
+      <c r="BU7" s="9"/>
+      <c r="BV7" s="9">
+        <v>1</v>
+      </c>
+      <c r="BW7" s="10"/>
+      <c r="BX7" s="10"/>
+      <c r="BY7" s="10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -733,8 +1930,128 @@
       <c r="I8">
         <v>1</v>
       </c>
+      <c r="M8" s="8">
+        <v>7</v>
+      </c>
+      <c r="N8" s="10">
+        <v>1</v>
+      </c>
+      <c r="O8" s="10">
+        <v>1</v>
+      </c>
+      <c r="P8" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>1</v>
+      </c>
+      <c r="R8" s="9">
+        <v>1</v>
+      </c>
+      <c r="S8" s="9">
+        <v>1</v>
+      </c>
+      <c r="T8" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="U8" s="9">
+        <v>2</v>
+      </c>
+      <c r="V8" s="10">
+        <v>1</v>
+      </c>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="AC8" s="8">
+        <v>7</v>
+      </c>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="10">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="10">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="9">
+        <v>2</v>
+      </c>
+      <c r="AI8" s="9">
+        <v>2</v>
+      </c>
+      <c r="AJ8" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="9">
+        <v>3</v>
+      </c>
+      <c r="AL8" s="10"/>
+      <c r="AM8" s="9"/>
+      <c r="AN8" s="9"/>
+      <c r="AO8" s="9"/>
+      <c r="AU8" s="8">
+        <v>7</v>
+      </c>
+      <c r="AV8" s="10"/>
+      <c r="AW8" s="10">
+        <v>1</v>
+      </c>
+      <c r="AX8" s="10"/>
+      <c r="AY8" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ8" s="9">
+        <v>1</v>
+      </c>
+      <c r="BA8" s="9">
+        <v>1</v>
+      </c>
+      <c r="BB8" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="9">
+        <v>2</v>
+      </c>
+      <c r="BD8" s="10"/>
+      <c r="BE8" s="10">
+        <v>1</v>
+      </c>
+      <c r="BF8" s="9">
+        <v>1</v>
+      </c>
+      <c r="BG8" s="9">
+        <v>1</v>
+      </c>
+      <c r="BM8" s="8">
+        <v>7</v>
+      </c>
+      <c r="BN8" s="10">
+        <v>1</v>
+      </c>
+      <c r="BO8" s="10"/>
+      <c r="BP8" s="10"/>
+      <c r="BQ8" s="10">
+        <v>1</v>
+      </c>
+      <c r="BR8" s="9"/>
+      <c r="BS8" s="9"/>
+      <c r="BT8" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="BV8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="BW8" s="10">
+        <v>1</v>
+      </c>
+      <c r="BX8" s="9"/>
+      <c r="BY8" s="9"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -759,8 +2076,127 @@
       <c r="J9">
         <v>2</v>
       </c>
+      <c r="M9" s="8">
+        <v>8</v>
+      </c>
+      <c r="N9" s="10">
+        <v>1</v>
+      </c>
+      <c r="O9" s="10">
+        <v>1</v>
+      </c>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9">
+        <v>1</v>
+      </c>
+      <c r="S9" s="9">
+        <v>1</v>
+      </c>
+      <c r="T9" s="9">
+        <v>2</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="V9" s="9"/>
+      <c r="W9" s="10">
+        <v>1</v>
+      </c>
+      <c r="X9" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="8">
+        <v>8</v>
+      </c>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="10">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="9">
+        <v>2</v>
+      </c>
+      <c r="AI9" s="9">
+        <v>2</v>
+      </c>
+      <c r="AJ9" s="9">
+        <v>3</v>
+      </c>
+      <c r="AK9" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="9"/>
+      <c r="AM9" s="10"/>
+      <c r="AN9" s="10"/>
+      <c r="AO9" s="10"/>
+      <c r="AU9" s="8">
+        <v>8</v>
+      </c>
+      <c r="AV9" s="10"/>
+      <c r="AW9" s="10"/>
+      <c r="AX9" s="10"/>
+      <c r="AY9" s="10"/>
+      <c r="AZ9" s="9">
+        <v>2</v>
+      </c>
+      <c r="BA9" s="9">
+        <v>1</v>
+      </c>
+      <c r="BB9" s="9">
+        <v>2</v>
+      </c>
+      <c r="BC9" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD9" s="10">
+        <v>1</v>
+      </c>
+      <c r="BE9" s="10"/>
+      <c r="BF9" s="10">
+        <v>1</v>
+      </c>
+      <c r="BG9" s="10">
+        <v>2</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>47</v>
+      </c>
+      <c r="BM9" s="8">
+        <v>8</v>
+      </c>
+      <c r="BN9" s="10"/>
+      <c r="BO9" s="10">
+        <v>1</v>
+      </c>
+      <c r="BP9" s="10"/>
+      <c r="BQ9" s="10"/>
+      <c r="BR9" s="9">
+        <v>1</v>
+      </c>
+      <c r="BS9" s="9"/>
+      <c r="BT9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="BU9" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="BW9" s="10"/>
+      <c r="BX9" s="10">
+        <v>1</v>
+      </c>
+      <c r="BY9" s="10"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -787,8 +2223,130 @@
       <c r="J10" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="M10" s="8">
+        <v>9</v>
+      </c>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>1</v>
+      </c>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="10">
+        <v>1</v>
+      </c>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="W10" s="9">
+        <v>2</v>
+      </c>
+      <c r="X10" s="9">
+        <v>2</v>
+      </c>
+      <c r="Y10" s="9">
+        <v>2</v>
+      </c>
+      <c r="AC10" s="8">
+        <v>9</v>
+      </c>
+      <c r="AD10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="10">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="9"/>
+      <c r="AI10" s="9"/>
+      <c r="AJ10" s="10"/>
+      <c r="AK10" s="9"/>
+      <c r="AL10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="9">
+        <v>3</v>
+      </c>
+      <c r="AN10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AO10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AU10" s="8">
+        <v>9</v>
+      </c>
+      <c r="AV10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AW10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AX10" s="9"/>
+      <c r="AY10" s="10"/>
+      <c r="AZ10" s="10">
+        <v>2</v>
+      </c>
+      <c r="BA10" s="9"/>
+      <c r="BB10" s="10"/>
+      <c r="BC10" s="10">
+        <v>1</v>
+      </c>
+      <c r="BD10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE10" s="9">
+        <v>1</v>
+      </c>
+      <c r="BF10" s="9">
+        <v>1</v>
+      </c>
+      <c r="BG10" s="9">
+        <v>2</v>
+      </c>
+      <c r="BM10" s="8">
+        <v>9</v>
+      </c>
+      <c r="BN10" s="10">
+        <v>1</v>
+      </c>
+      <c r="BO10" s="9"/>
+      <c r="BP10" s="9">
+        <v>1</v>
+      </c>
+      <c r="BQ10" s="10"/>
+      <c r="BR10" s="10">
+        <v>1</v>
+      </c>
+      <c r="BS10" s="9">
+        <v>1</v>
+      </c>
+      <c r="BT10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="BU10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="BV10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW10" s="9"/>
+      <c r="BX10" s="9"/>
+      <c r="BY10" s="9">
+        <v>2</v>
+      </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:78" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>0</v>
       </c>
@@ -816,8 +2374,124 @@
       <c r="J11">
         <v>0</v>
       </c>
+      <c r="M11" s="8">
+        <v>10</v>
+      </c>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="10">
+        <v>1</v>
+      </c>
+      <c r="V11" s="9">
+        <v>2</v>
+      </c>
+      <c r="W11" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="X11" s="9">
+        <v>3</v>
+      </c>
+      <c r="Y11" s="9">
+        <v>3</v>
+      </c>
+      <c r="AC11" s="8">
+        <v>10</v>
+      </c>
+      <c r="AD11" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="9">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="10">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="9"/>
+      <c r="AI11" s="9"/>
+      <c r="AJ11" s="9"/>
+      <c r="AK11" s="10"/>
+      <c r="AL11" s="9">
+        <v>3</v>
+      </c>
+      <c r="AM11" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="9">
+        <v>1</v>
+      </c>
+      <c r="AO11" s="9">
+        <v>1</v>
+      </c>
+      <c r="AU11" s="8">
+        <v>10</v>
+      </c>
+      <c r="AV11" s="9"/>
+      <c r="AW11" s="10">
+        <v>1</v>
+      </c>
+      <c r="AX11" s="9">
+        <v>1</v>
+      </c>
+      <c r="AY11" s="10">
+        <v>2</v>
+      </c>
+      <c r="AZ11" s="9"/>
+      <c r="BA11" s="10">
+        <v>1</v>
+      </c>
+      <c r="BB11" s="10">
+        <v>1</v>
+      </c>
+      <c r="BC11" s="10"/>
+      <c r="BD11" s="9">
+        <v>1</v>
+      </c>
+      <c r="BE11" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF11" s="9">
+        <v>1</v>
+      </c>
+      <c r="BG11" s="9">
+        <v>1</v>
+      </c>
+      <c r="BM11" s="8">
+        <v>10</v>
+      </c>
+      <c r="BN11" s="9">
+        <v>1</v>
+      </c>
+      <c r="BO11" s="10"/>
+      <c r="BP11" s="9"/>
+      <c r="BQ11" s="10">
+        <v>1</v>
+      </c>
+      <c r="BR11" s="9"/>
+      <c r="BS11" s="10"/>
+      <c r="BT11" s="10">
+        <v>1</v>
+      </c>
+      <c r="BU11" s="10"/>
+      <c r="BV11" s="9"/>
+      <c r="BW11" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="BY11" s="9" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:78" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>1</v>
       </c>
@@ -830,11 +2504,127 @@
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="L12" t="s">
-        <v>1</v>
+      <c r="L12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M12" s="8">
+        <v>11</v>
+      </c>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="10">
+        <v>1</v>
+      </c>
+      <c r="V12" s="9">
+        <v>2</v>
+      </c>
+      <c r="W12" s="9">
+        <v>3</v>
+      </c>
+      <c r="X12" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="9">
+        <v>3</v>
+      </c>
+      <c r="AC12" s="8">
+        <v>11</v>
+      </c>
+      <c r="AD12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="10">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="9"/>
+      <c r="AG12" s="9"/>
+      <c r="AH12" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="10">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="9"/>
+      <c r="AK12" s="10"/>
+      <c r="AL12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="9">
+        <v>3</v>
+      </c>
+      <c r="AU12" s="8">
+        <v>11</v>
+      </c>
+      <c r="AV12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AW12" s="10"/>
+      <c r="AX12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AY12" s="9"/>
+      <c r="AZ12" s="10"/>
+      <c r="BA12" s="10">
+        <v>1</v>
+      </c>
+      <c r="BB12" s="9">
+        <v>1</v>
+      </c>
+      <c r="BC12" s="10">
+        <v>1</v>
+      </c>
+      <c r="BD12" s="9">
+        <v>1</v>
+      </c>
+      <c r="BE12" s="9">
+        <v>1</v>
+      </c>
+      <c r="BF12" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG12" s="9">
+        <v>2</v>
+      </c>
+      <c r="BM12" s="8">
+        <v>11</v>
+      </c>
+      <c r="BN12" s="9"/>
+      <c r="BO12" s="10">
+        <v>1</v>
+      </c>
+      <c r="BP12" s="9"/>
+      <c r="BQ12" s="9"/>
+      <c r="BR12" s="10">
+        <v>1</v>
+      </c>
+      <c r="BS12" s="10"/>
+      <c r="BT12" s="9"/>
+      <c r="BU12" s="10">
+        <v>1</v>
+      </c>
+      <c r="BV12" s="10"/>
+      <c r="BW12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="BX12" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY12" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:78" x14ac:dyDescent="0.3">
       <c r="F13">
         <v>1</v>
       </c>
@@ -847,11 +2637,123 @@
       <c r="I13">
         <v>1</v>
       </c>
-      <c r="L13" t="s">
-        <v>2</v>
+      <c r="L13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M13" s="8">
+        <v>12</v>
+      </c>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3">
+        <v>1</v>
+      </c>
+      <c r="V13" s="3">
+        <v>2</v>
+      </c>
+      <c r="W13" s="3">
+        <v>3</v>
+      </c>
+      <c r="X13" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="8">
+        <v>12</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="3">
+        <v>3</v>
+      </c>
+      <c r="AO13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="8">
+        <v>12</v>
+      </c>
+      <c r="AV13" s="3"/>
+      <c r="AW13" s="3"/>
+      <c r="AX13" s="3"/>
+      <c r="AY13" s="3"/>
+      <c r="AZ13" s="3">
+        <v>1</v>
+      </c>
+      <c r="BA13" s="3"/>
+      <c r="BB13" s="3">
+        <v>1</v>
+      </c>
+      <c r="BC13" s="3">
+        <v>2</v>
+      </c>
+      <c r="BD13" s="3">
+        <v>2</v>
+      </c>
+      <c r="BE13" s="3">
+        <v>1</v>
+      </c>
+      <c r="BF13" s="3">
+        <v>2</v>
+      </c>
+      <c r="BG13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM13" s="8">
+        <v>12</v>
+      </c>
+      <c r="BN13" s="3"/>
+      <c r="BO13" s="3"/>
+      <c r="BP13" s="3">
+        <v>1</v>
+      </c>
+      <c r="BQ13" s="3"/>
+      <c r="BR13" s="3"/>
+      <c r="BS13" s="3">
+        <v>1</v>
+      </c>
+      <c r="BT13" s="3"/>
+      <c r="BU13" s="3"/>
+      <c r="BV13" s="3">
+        <v>1</v>
+      </c>
+      <c r="BW13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="BX13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="BY13" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:78" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>2</v>
       </c>
@@ -864,11 +2766,158 @@
       <c r="J14">
         <v>1</v>
       </c>
-      <c r="L14" t="s">
-        <v>3</v>
+      <c r="L14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="7"/>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="7"/>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>0</v>
+      </c>
+      <c r="BB14">
+        <v>0</v>
+      </c>
+      <c r="BC14">
+        <v>0</v>
+      </c>
+      <c r="BD14">
+        <v>0</v>
+      </c>
+      <c r="BE14">
+        <v>0</v>
+      </c>
+      <c r="BF14">
+        <v>0</v>
+      </c>
+      <c r="BG14">
+        <v>0</v>
+      </c>
+      <c r="BM14" s="7"/>
+      <c r="BN14">
+        <v>0</v>
+      </c>
+      <c r="BO14">
+        <v>0</v>
+      </c>
+      <c r="BP14">
+        <v>0</v>
+      </c>
+      <c r="BQ14">
+        <v>0</v>
+      </c>
+      <c r="BR14">
+        <v>0</v>
+      </c>
+      <c r="BS14">
+        <v>0</v>
+      </c>
+      <c r="BT14">
+        <v>0</v>
+      </c>
+      <c r="BU14">
+        <v>0</v>
+      </c>
+      <c r="BV14">
+        <v>0</v>
+      </c>
+      <c r="BW14">
+        <v>0</v>
+      </c>
+      <c r="BX14">
+        <v>0</v>
+      </c>
+      <c r="BY14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:78" x14ac:dyDescent="0.3">
       <c r="D15">
         <v>2</v>
       </c>
@@ -881,11 +2930,71 @@
       <c r="H15">
         <v>2</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD15">
+        <v>1</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
+      </c>
+      <c r="AF15">
+        <v>1</v>
+      </c>
+      <c r="AG15">
+        <v>1</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV15">
+        <v>1</v>
+      </c>
+      <c r="AW15">
+        <v>1</v>
+      </c>
+      <c r="AX15">
+        <v>1</v>
+      </c>
+      <c r="AY15">
+        <v>1</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN15">
+        <v>1</v>
+      </c>
+      <c r="BQ15">
+        <v>1</v>
+      </c>
+      <c r="BT15">
+        <v>1</v>
+      </c>
+      <c r="BW15">
+        <v>1</v>
+      </c>
+      <c r="BZ15" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:78" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>3</v>
       </c>
@@ -898,11 +3007,71 @@
       <c r="J16">
         <v>2</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH16">
+        <v>1</v>
+      </c>
+      <c r="AI16">
+        <v>1</v>
+      </c>
+      <c r="AJ16">
+        <v>1</v>
+      </c>
+      <c r="AK16">
+        <v>1</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ16">
+        <v>1</v>
+      </c>
+      <c r="BA16">
+        <v>1</v>
+      </c>
+      <c r="BB16">
+        <v>1</v>
+      </c>
+      <c r="BC16">
+        <v>1</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>2</v>
+      </c>
+      <c r="BO16">
+        <v>1</v>
+      </c>
+      <c r="BR16">
+        <v>1</v>
+      </c>
+      <c r="BU16">
+        <v>1</v>
+      </c>
+      <c r="BX16">
+        <v>1</v>
+      </c>
+      <c r="BZ16" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:78" x14ac:dyDescent="0.3">
       <c r="C17">
         <v>3</v>
       </c>
@@ -915,11 +3084,71 @@
       <c r="H17">
         <v>3</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>1</v>
+      </c>
+      <c r="Y17">
+        <v>1</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL17">
+        <v>1</v>
+      </c>
+      <c r="AM17">
+        <v>1</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
+      <c r="AO17">
+        <v>1</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>16</v>
+      </c>
+      <c r="BD17">
+        <v>1</v>
+      </c>
+      <c r="BE17">
+        <v>1</v>
+      </c>
+      <c r="BF17">
+        <v>1</v>
+      </c>
+      <c r="BG17">
+        <v>1</v>
+      </c>
+      <c r="BI17" t="s">
+        <v>16</v>
+      </c>
+      <c r="BP17">
+        <v>1</v>
+      </c>
+      <c r="BS17">
+        <v>1</v>
+      </c>
+      <c r="BV17">
+        <v>1</v>
+      </c>
+      <c r="BY17">
+        <v>1</v>
+      </c>
+      <c r="BZ17" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:78" x14ac:dyDescent="0.3">
       <c r="E18">
         <v>3</v>
       </c>
@@ -929,13 +3158,433 @@
       <c r="J18">
         <v>3</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
+      </c>
+      <c r="O18">
+        <v>2</v>
+      </c>
+      <c r="R18">
+        <v>2</v>
+      </c>
+      <c r="S18">
+        <v>2</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD18">
+        <v>2</v>
+      </c>
+      <c r="AH18">
+        <v>2</v>
+      </c>
+      <c r="AN18">
+        <v>2</v>
+      </c>
+      <c r="AO18">
+        <v>2</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV18">
+        <v>2</v>
+      </c>
+      <c r="AW18">
+        <v>2</v>
+      </c>
+      <c r="AZ18">
+        <v>2</v>
+      </c>
+      <c r="BD18">
+        <v>2</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN18">
+        <v>2</v>
+      </c>
+      <c r="BR18">
+        <v>2</v>
+      </c>
+      <c r="BV18">
+        <v>2</v>
+      </c>
+      <c r="BY18">
+        <v>2</v>
+      </c>
+      <c r="BZ18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="3:78" x14ac:dyDescent="0.3">
+      <c r="P19">
+        <v>2</v>
+      </c>
+      <c r="Q19">
+        <v>2</v>
+      </c>
+      <c r="T19">
+        <v>2</v>
+      </c>
+      <c r="V19">
+        <v>2</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE19">
+        <v>2</v>
+      </c>
+      <c r="AF19">
+        <v>2</v>
+      </c>
+      <c r="AL19">
+        <v>2</v>
+      </c>
+      <c r="AM19">
+        <v>2</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>24</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AX19">
+        <v>2</v>
+      </c>
+      <c r="AY19">
+        <v>2</v>
+      </c>
+      <c r="BA19">
+        <v>2</v>
+      </c>
+      <c r="BE19">
+        <v>2</v>
+      </c>
+      <c r="BI19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="3:78" x14ac:dyDescent="0.3">
+      <c r="U20">
+        <v>2</v>
+      </c>
+      <c r="W20">
+        <v>2</v>
+      </c>
+      <c r="X20">
+        <v>2</v>
+      </c>
+      <c r="Y20">
+        <v>2</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG20">
+        <v>2</v>
+      </c>
+      <c r="AI20">
+        <v>2</v>
+      </c>
+      <c r="AJ20">
+        <v>2</v>
+      </c>
+      <c r="AK20">
+        <v>2</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>27</v>
+      </c>
+      <c r="BB20">
+        <v>2</v>
+      </c>
+      <c r="BC20">
+        <v>2</v>
+      </c>
+      <c r="BF20">
+        <v>2</v>
+      </c>
+      <c r="BG20">
+        <v>2</v>
+      </c>
+      <c r="BI20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="3:78" x14ac:dyDescent="0.3">
+      <c r="N21">
+        <v>3</v>
+      </c>
+      <c r="O21">
+        <v>3</v>
+      </c>
+      <c r="T21">
+        <v>3</v>
+      </c>
+      <c r="U21">
+        <v>3</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE21">
+        <v>3</v>
+      </c>
+      <c r="AI21">
+        <v>3</v>
+      </c>
+      <c r="AN21">
+        <v>3</v>
+      </c>
+      <c r="AO21">
+        <v>3</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AV21">
+        <v>3</v>
+      </c>
+      <c r="AX21">
+        <v>3</v>
+      </c>
+      <c r="BA21">
+        <v>3</v>
+      </c>
+      <c r="BF21">
+        <v>3</v>
+      </c>
+      <c r="BI21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="3:78" x14ac:dyDescent="0.3">
+      <c r="P22">
+        <v>3</v>
+      </c>
+      <c r="Q22">
+        <v>3</v>
+      </c>
+      <c r="R22">
+        <v>3</v>
+      </c>
+      <c r="S22">
+        <v>3</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD22">
+        <v>3</v>
+      </c>
+      <c r="AG22">
+        <v>3</v>
+      </c>
+      <c r="AL22">
+        <v>3</v>
+      </c>
+      <c r="AM22">
+        <v>3</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>32</v>
+      </c>
+      <c r="AW22">
+        <v>3</v>
+      </c>
+      <c r="AY22">
+        <v>3</v>
+      </c>
+      <c r="BB22">
+        <v>3</v>
+      </c>
+      <c r="BE22">
+        <v>3</v>
+      </c>
+      <c r="BI22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="3:78" x14ac:dyDescent="0.3">
+      <c r="V23">
+        <v>3</v>
+      </c>
+      <c r="W23">
+        <v>3</v>
+      </c>
+      <c r="X23">
+        <v>3</v>
+      </c>
+      <c r="Y23">
+        <v>3</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF23">
+        <v>3</v>
+      </c>
+      <c r="AH23">
+        <v>3</v>
+      </c>
+      <c r="AJ23">
+        <v>3</v>
+      </c>
+      <c r="AK23">
+        <v>3</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>35</v>
+      </c>
+      <c r="AZ23">
+        <v>3</v>
+      </c>
+      <c r="BC23">
+        <v>3</v>
+      </c>
+      <c r="BD23">
+        <v>3</v>
+      </c>
+      <c r="BG23">
+        <v>3</v>
+      </c>
+      <c r="BI23" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="N2:Y13">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="num" val="3"/>
+        <color theme="9" tint="0.39997558519241921"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF4747"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:J10">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="num" val="3"/>
+        <color theme="9" tint="0.39997558519241921"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF4747"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD2:AO13">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="num" val="3"/>
+        <color theme="9" tint="0.39997558519241921"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF4747"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV2:BG13">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="num" val="3"/>
+        <color theme="9" tint="0.39997558519241921"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF4747"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BN2:BY13">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="num" val="3"/>
+        <color theme="9" tint="0.39997558519241921"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF4747"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -943,7 +3592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F95B0BED-FD34-4687-A3CA-CCFA86826ADF}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -979,7 +3628,7 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <f ca="1">NOW()</f>
-        <v>44600.729799421293</v>
+        <v>44610.974865393517</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>

--- a/Planning/csapatsorsolás.xlsx
+++ b/Planning/csapatsorsolás.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Csabi\Documents\Személyes\Tanulmányok\ELTE IK\Prog Inf BsC\5.félév\Szakdolgozat\QuizProgram_LauncherConcept\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65825BE2-1588-4D8C-877E-7952B8D9CE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10477329-D8B0-4219-94A0-185CB174EA63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="564" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
     <sheet name="Munka2" sheetId="2" r:id="rId2"/>
+    <sheet name="Munka3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="49">
   <si>
     <t>x</t>
   </si>
@@ -163,22 +164,25 @@
     <t>5,8,9,12</t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>1,4,7,10</t>
-  </si>
-  <si>
-    <t>2,5,8,11</t>
-  </si>
-  <si>
-    <t>3,6,9,12</t>
-  </si>
-  <si>
-    <t>1,5,9,12</t>
-  </si>
-  <si>
     <t>í</t>
+  </si>
+  <si>
+    <t>5,6,7,1</t>
+  </si>
+  <si>
+    <t>2,5,3,6</t>
+  </si>
+  <si>
+    <t>4,7,2,5</t>
+  </si>
+  <si>
+    <t>körök</t>
+  </si>
+  <si>
+    <t>csapatok</t>
+  </si>
+  <si>
+    <t>körök száma:</t>
   </si>
 </sst>
 </file>
@@ -206,7 +210,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,8 +229,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -252,11 +262,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -270,11 +289,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -422,10 +476,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>411481</xdr:colOff>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>7621</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>28135</xdr:rowOff>
+      <xdr:rowOff>81475</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3053862" cy="2159053"/>
     <xdr:sp macro="" textlink="">
@@ -441,7 +495,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11509787" y="4151900"/>
+          <a:off x="12816841" y="4287715"/>
           <a:ext cx="3053862" cy="2159053"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -796,10 +850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BZ23"/>
+  <dimension ref="A1:CA23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="BH9" sqref="BH9"/>
+    <sheetView topLeftCell="BI10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BN26" sqref="BN26:CO33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -823,7 +877,7 @@
     <col min="75" max="77" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:79" x14ac:dyDescent="0.3">
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -987,23 +1041,23 @@
       <c r="BT1" s="1">
         <v>7</v>
       </c>
-      <c r="BU1" s="1">
+      <c r="BU1" s="13">
         <v>8</v>
       </c>
-      <c r="BV1" s="1">
+      <c r="BV1" s="13">
         <v>9</v>
       </c>
-      <c r="BW1" s="1">
+      <c r="BW1" s="13">
         <v>10</v>
       </c>
-      <c r="BX1" s="1">
+      <c r="BX1" s="13">
         <v>11</v>
       </c>
-      <c r="BY1" s="1">
+      <c r="BY1" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1136,11 +1190,11 @@
       <c r="BN2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="BO2" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="BP2" s="9" t="s">
-        <v>42</v>
+      <c r="BO2" s="9">
+        <v>1</v>
+      </c>
+      <c r="BP2" s="9">
+        <v>1</v>
       </c>
       <c r="BQ2" s="10">
         <v>1</v>
@@ -1148,23 +1202,19 @@
       <c r="BR2" s="10">
         <v>1</v>
       </c>
-      <c r="BS2" s="10"/>
+      <c r="BS2" s="10">
+        <v>1</v>
+      </c>
       <c r="BT2" s="10">
         <v>1</v>
       </c>
-      <c r="BU2" s="10"/>
-      <c r="BV2" s="10">
-        <v>1</v>
-      </c>
-      <c r="BW2" s="9">
-        <v>1</v>
-      </c>
-      <c r="BX2" s="9"/>
-      <c r="BY2" s="10">
-        <v>1</v>
-      </c>
+      <c r="BU2" s="14"/>
+      <c r="BV2" s="14"/>
+      <c r="BW2" s="14"/>
+      <c r="BX2" s="14"/>
+      <c r="BY2" s="14"/>
     </row>
-    <row r="3" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1287,32 +1337,34 @@
       <c r="BM3" s="8">
         <v>2</v>
       </c>
-      <c r="BN3" s="9" t="s">
-        <v>42</v>
+      <c r="BN3" s="9">
+        <v>1</v>
       </c>
       <c r="BO3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="BP3" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="BQ3" s="10"/>
+      <c r="BP3" s="9">
+        <v>2</v>
+      </c>
+      <c r="BQ3" s="10">
+        <v>2</v>
+      </c>
       <c r="BR3" s="10">
-        <v>1</v>
-      </c>
-      <c r="BS3" s="10"/>
-      <c r="BT3" s="10"/>
-      <c r="BU3" s="10">
-        <v>1</v>
-      </c>
-      <c r="BV3" s="9"/>
-      <c r="BW3" s="10"/>
-      <c r="BX3" s="10">
-        <v>1</v>
-      </c>
-      <c r="BY3" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="BS3" s="10">
+        <v>1</v>
+      </c>
+      <c r="BT3" s="10">
+        <v>1</v>
+      </c>
+      <c r="BU3" s="14"/>
+      <c r="BV3" s="14"/>
+      <c r="BW3" s="14"/>
+      <c r="BX3" s="14"/>
+      <c r="BY3" s="14"/>
     </row>
-    <row r="4" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1433,32 +1485,32 @@
       <c r="BM4" s="8">
         <v>3</v>
       </c>
-      <c r="BN4" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="BO4" s="9" t="s">
-        <v>42</v>
+      <c r="BN4" s="9">
+        <v>1</v>
+      </c>
+      <c r="BO4" s="9">
+        <v>2</v>
       </c>
       <c r="BP4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="BQ4" s="10"/>
-      <c r="BR4" s="10"/>
+      <c r="BQ4" s="10">
+        <v>1</v>
+      </c>
+      <c r="BR4" s="10">
+        <v>1</v>
+      </c>
       <c r="BS4" s="10">
         <v>1</v>
       </c>
       <c r="BT4" s="10"/>
-      <c r="BU4" s="10"/>
-      <c r="BV4" s="9">
-        <v>1</v>
-      </c>
-      <c r="BW4" s="9"/>
-      <c r="BX4" s="9"/>
-      <c r="BY4" s="9">
-        <v>1</v>
-      </c>
+      <c r="BU4" s="14"/>
+      <c r="BV4" s="14"/>
+      <c r="BW4" s="14"/>
+      <c r="BX4" s="14"/>
+      <c r="BY4" s="14"/>
     </row>
-    <row r="5" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1585,29 +1637,29 @@
       <c r="BN5" s="10">
         <v>1</v>
       </c>
-      <c r="BO5" s="10"/>
-      <c r="BP5" s="10"/>
+      <c r="BO5" s="10">
+        <v>2</v>
+      </c>
+      <c r="BP5" s="10">
+        <v>1</v>
+      </c>
       <c r="BQ5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="BR5" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="BS5" s="10" t="s">
-        <v>42</v>
-      </c>
+      <c r="BR5" s="10">
+        <v>1</v>
+      </c>
+      <c r="BS5" s="10"/>
       <c r="BT5" s="10">
         <v>1</v>
       </c>
-      <c r="BU5" s="10"/>
-      <c r="BV5" s="10"/>
-      <c r="BW5" s="10">
-        <v>1</v>
-      </c>
-      <c r="BX5" s="9"/>
-      <c r="BY5" s="9"/>
+      <c r="BU5" s="14"/>
+      <c r="BV5" s="14"/>
+      <c r="BW5" s="14"/>
+      <c r="BX5" s="14"/>
+      <c r="BY5" s="14"/>
     </row>
-    <row r="6" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1735,34 +1787,30 @@
         <v>1</v>
       </c>
       <c r="BO6" s="10">
-        <v>1</v>
-      </c>
-      <c r="BP6" s="10"/>
-      <c r="BQ6" s="10" t="s">
-        <v>42</v>
+        <v>2</v>
+      </c>
+      <c r="BP6" s="10">
+        <v>1</v>
+      </c>
+      <c r="BQ6" s="10">
+        <v>1</v>
       </c>
       <c r="BR6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="BS6" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="BT6" s="9"/>
-      <c r="BU6" s="9">
-        <v>1</v>
-      </c>
-      <c r="BV6" s="10">
-        <v>1</v>
-      </c>
-      <c r="BW6" s="9"/>
-      <c r="BX6" s="10">
-        <v>1</v>
-      </c>
-      <c r="BY6" s="10">
-        <v>1</v>
-      </c>
+      <c r="BS6" s="9">
+        <v>2</v>
+      </c>
+      <c r="BT6" s="9">
+        <v>2</v>
+      </c>
+      <c r="BU6" s="14"/>
+      <c r="BV6" s="14"/>
+      <c r="BW6" s="14"/>
+      <c r="BX6" s="14"/>
+      <c r="BY6" s="14"/>
     </row>
-    <row r="7" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1880,32 +1928,32 @@
       <c r="BM7" s="8">
         <v>6</v>
       </c>
-      <c r="BN7" s="10"/>
-      <c r="BO7" s="10"/>
+      <c r="BN7" s="10">
+        <v>1</v>
+      </c>
+      <c r="BO7" s="10">
+        <v>1</v>
+      </c>
       <c r="BP7" s="10">
         <v>1</v>
       </c>
-      <c r="BQ7" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="BR7" s="9" t="s">
-        <v>42</v>
+      <c r="BQ7" s="10"/>
+      <c r="BR7" s="9">
+        <v>2</v>
       </c>
       <c r="BS7" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="BT7" s="9"/>
-      <c r="BU7" s="9"/>
-      <c r="BV7" s="9">
-        <v>1</v>
-      </c>
-      <c r="BW7" s="10"/>
-      <c r="BX7" s="10"/>
-      <c r="BY7" s="10">
-        <v>1</v>
-      </c>
+      <c r="BT7" s="9">
+        <v>1</v>
+      </c>
+      <c r="BU7" s="14"/>
+      <c r="BV7" s="14"/>
+      <c r="BW7" s="14"/>
+      <c r="BX7" s="14"/>
+      <c r="BY7" s="14"/>
     </row>
-    <row r="8" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2029,29 +2077,29 @@
       <c r="BN8" s="10">
         <v>1</v>
       </c>
-      <c r="BO8" s="10"/>
+      <c r="BO8" s="10">
+        <v>1</v>
+      </c>
       <c r="BP8" s="10"/>
       <c r="BQ8" s="10">
         <v>1</v>
       </c>
-      <c r="BR8" s="9"/>
-      <c r="BS8" s="9"/>
+      <c r="BR8" s="9">
+        <v>2</v>
+      </c>
+      <c r="BS8" s="9">
+        <v>1</v>
+      </c>
       <c r="BT8" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="BU8" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="BV8" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="BW8" s="10">
-        <v>1</v>
-      </c>
-      <c r="BX8" s="9"/>
-      <c r="BY8" s="9"/>
+      <c r="BU8" s="14"/>
+      <c r="BV8" s="14"/>
+      <c r="BW8" s="14"/>
+      <c r="BX8" s="14"/>
+      <c r="BY8" s="14"/>
     </row>
-    <row r="9" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2166,37 +2214,25 @@
         <v>2</v>
       </c>
       <c r="BH9" t="s">
-        <v>47</v>
-      </c>
-      <c r="BM9" s="8">
+        <v>42</v>
+      </c>
+      <c r="BM9" s="13">
         <v>8</v>
       </c>
-      <c r="BN9" s="10"/>
-      <c r="BO9" s="10">
-        <v>1</v>
-      </c>
-      <c r="BP9" s="10"/>
-      <c r="BQ9" s="10"/>
-      <c r="BR9" s="9">
-        <v>1</v>
-      </c>
-      <c r="BS9" s="9"/>
-      <c r="BT9" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="BU9" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="BV9" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="BW9" s="10"/>
-      <c r="BX9" s="10">
-        <v>1</v>
-      </c>
-      <c r="BY9" s="10"/>
+      <c r="BN9" s="14"/>
+      <c r="BO9" s="14"/>
+      <c r="BP9" s="14"/>
+      <c r="BQ9" s="14"/>
+      <c r="BR9" s="14"/>
+      <c r="BS9" s="14"/>
+      <c r="BT9" s="14"/>
+      <c r="BU9" s="14"/>
+      <c r="BV9" s="14"/>
+      <c r="BW9" s="14"/>
+      <c r="BX9" s="14"/>
+      <c r="BY9" s="14"/>
     </row>
-    <row r="10" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2314,39 +2350,23 @@
       <c r="BG10" s="9">
         <v>2</v>
       </c>
-      <c r="BM10" s="8">
+      <c r="BM10" s="13">
         <v>9</v>
       </c>
-      <c r="BN10" s="10">
-        <v>1</v>
-      </c>
-      <c r="BO10" s="9"/>
-      <c r="BP10" s="9">
-        <v>1</v>
-      </c>
-      <c r="BQ10" s="10"/>
-      <c r="BR10" s="10">
-        <v>1</v>
-      </c>
-      <c r="BS10" s="9">
-        <v>1</v>
-      </c>
-      <c r="BT10" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="BU10" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="BV10" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW10" s="9"/>
-      <c r="BX10" s="9"/>
-      <c r="BY10" s="9">
-        <v>2</v>
-      </c>
+      <c r="BN10" s="14"/>
+      <c r="BO10" s="14"/>
+      <c r="BP10" s="14"/>
+      <c r="BQ10" s="14"/>
+      <c r="BR10" s="14"/>
+      <c r="BS10" s="14"/>
+      <c r="BT10" s="14"/>
+      <c r="BU10" s="14"/>
+      <c r="BV10" s="14"/>
+      <c r="BW10" s="14"/>
+      <c r="BX10" s="14"/>
+      <c r="BY10" s="14"/>
     </row>
-    <row r="11" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:79" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>0</v>
       </c>
@@ -2463,35 +2483,23 @@
       <c r="BG11" s="9">
         <v>1</v>
       </c>
-      <c r="BM11" s="8">
+      <c r="BM11" s="13">
         <v>10</v>
       </c>
-      <c r="BN11" s="9">
-        <v>1</v>
-      </c>
-      <c r="BO11" s="10"/>
-      <c r="BP11" s="9"/>
-      <c r="BQ11" s="10">
-        <v>1</v>
-      </c>
-      <c r="BR11" s="9"/>
-      <c r="BS11" s="10"/>
-      <c r="BT11" s="10">
-        <v>1</v>
-      </c>
-      <c r="BU11" s="10"/>
-      <c r="BV11" s="9"/>
-      <c r="BW11" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="BX11" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="BY11" s="9" t="s">
-        <v>42</v>
-      </c>
+      <c r="BN11" s="14"/>
+      <c r="BO11" s="14"/>
+      <c r="BP11" s="14"/>
+      <c r="BQ11" s="14"/>
+      <c r="BR11" s="14"/>
+      <c r="BS11" s="14"/>
+      <c r="BT11" s="14"/>
+      <c r="BU11" s="14"/>
+      <c r="BV11" s="14"/>
+      <c r="BW11" s="14"/>
+      <c r="BX11" s="14"/>
+      <c r="BY11" s="14"/>
     </row>
-    <row r="12" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:79" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>1</v>
       </c>
@@ -2596,35 +2604,23 @@
       <c r="BG12" s="9">
         <v>2</v>
       </c>
-      <c r="BM12" s="8">
+      <c r="BM12" s="13">
         <v>11</v>
       </c>
-      <c r="BN12" s="9"/>
-      <c r="BO12" s="10">
-        <v>1</v>
-      </c>
-      <c r="BP12" s="9"/>
-      <c r="BQ12" s="9"/>
-      <c r="BR12" s="10">
-        <v>1</v>
-      </c>
-      <c r="BS12" s="10"/>
-      <c r="BT12" s="9"/>
-      <c r="BU12" s="10">
-        <v>1</v>
-      </c>
-      <c r="BV12" s="10"/>
-      <c r="BW12" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="BX12" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="BY12" s="9" t="s">
-        <v>42</v>
-      </c>
+      <c r="BN12" s="14"/>
+      <c r="BO12" s="14"/>
+      <c r="BP12" s="14"/>
+      <c r="BQ12" s="14"/>
+      <c r="BR12" s="14"/>
+      <c r="BS12" s="14"/>
+      <c r="BT12" s="14"/>
+      <c r="BU12" s="14"/>
+      <c r="BV12" s="14"/>
+      <c r="BW12" s="14"/>
+      <c r="BX12" s="14"/>
+      <c r="BY12" s="14"/>
     </row>
-    <row r="13" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:79" x14ac:dyDescent="0.3">
       <c r="F13">
         <v>1</v>
       </c>
@@ -2725,35 +2721,23 @@
       <c r="BG13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="BM13" s="8">
+      <c r="BM13" s="13">
         <v>12</v>
       </c>
-      <c r="BN13" s="3"/>
-      <c r="BO13" s="3"/>
-      <c r="BP13" s="3">
-        <v>1</v>
-      </c>
-      <c r="BQ13" s="3"/>
-      <c r="BR13" s="3"/>
-      <c r="BS13" s="3">
-        <v>1</v>
-      </c>
-      <c r="BT13" s="3"/>
-      <c r="BU13" s="3"/>
-      <c r="BV13" s="3">
-        <v>1</v>
-      </c>
-      <c r="BW13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="BX13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="BY13" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="BN13" s="15"/>
+      <c r="BO13" s="15"/>
+      <c r="BP13" s="15"/>
+      <c r="BQ13" s="15"/>
+      <c r="BR13" s="15"/>
+      <c r="BS13" s="15"/>
+      <c r="BT13" s="15"/>
+      <c r="BU13" s="15"/>
+      <c r="BV13" s="15"/>
+      <c r="BW13" s="15"/>
+      <c r="BX13" s="15"/>
+      <c r="BY13" s="15"/>
     </row>
-    <row r="14" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:79" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>2</v>
       </c>
@@ -2917,7 +2901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:79" x14ac:dyDescent="0.3">
       <c r="D15">
         <v>2</v>
       </c>
@@ -2981,20 +2965,20 @@
       <c r="BN15">
         <v>1</v>
       </c>
+      <c r="BO15">
+        <v>1</v>
+      </c>
+      <c r="BP15">
+        <v>1</v>
+      </c>
       <c r="BQ15">
         <v>1</v>
       </c>
-      <c r="BT15">
-        <v>1</v>
-      </c>
-      <c r="BW15">
-        <v>1</v>
-      </c>
-      <c r="BZ15" t="s">
-        <v>43</v>
+      <c r="CA15" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:79" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>3</v>
       </c>
@@ -3055,23 +3039,23 @@
       <c r="BI16" t="s">
         <v>2</v>
       </c>
-      <c r="BO16">
-        <v>1</v>
+      <c r="BN16">
+        <v>2</v>
       </c>
       <c r="BR16">
         <v>1</v>
       </c>
-      <c r="BU16">
-        <v>1</v>
-      </c>
-      <c r="BX16">
-        <v>1</v>
-      </c>
-      <c r="BZ16" t="s">
-        <v>44</v>
+      <c r="BS16">
+        <v>1</v>
+      </c>
+      <c r="BT16">
+        <v>1</v>
+      </c>
+      <c r="CA16" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="17" spans="3:78" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:79" x14ac:dyDescent="0.3">
       <c r="C17">
         <v>3</v>
       </c>
@@ -3132,23 +3116,23 @@
       <c r="BI17" t="s">
         <v>16</v>
       </c>
+      <c r="BO17">
+        <v>2</v>
+      </c>
       <c r="BP17">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="BR17">
+        <v>2</v>
       </c>
       <c r="BS17">
-        <v>1</v>
-      </c>
-      <c r="BV17">
-        <v>1</v>
-      </c>
-      <c r="BY17">
-        <v>1</v>
-      </c>
-      <c r="BZ17" t="s">
-        <v>45</v>
+        <v>2</v>
+      </c>
+      <c r="CA17" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="18" spans="3:78" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:79" x14ac:dyDescent="0.3">
       <c r="E18">
         <v>3</v>
       </c>
@@ -3209,23 +3193,23 @@
       <c r="BI18" t="s">
         <v>36</v>
       </c>
-      <c r="BN18">
+      <c r="BO18">
+        <v>3</v>
+      </c>
+      <c r="BQ18">
         <v>2</v>
       </c>
       <c r="BR18">
-        <v>2</v>
-      </c>
-      <c r="BV18">
-        <v>2</v>
-      </c>
-      <c r="BY18">
-        <v>2</v>
-      </c>
-      <c r="BZ18" t="s">
-        <v>46</v>
+        <v>3</v>
+      </c>
+      <c r="BT18">
+        <v>2</v>
+      </c>
+      <c r="CA18" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="19" spans="3:78" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:79" x14ac:dyDescent="0.3">
       <c r="P19">
         <v>2</v>
       </c>
@@ -3275,7 +3259,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="3:78" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:79" x14ac:dyDescent="0.3">
       <c r="U20">
         <v>2</v>
       </c>
@@ -3328,7 +3312,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="3:78" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:79" x14ac:dyDescent="0.3">
       <c r="N21">
         <v>3</v>
       </c>
@@ -3378,7 +3362,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="3:78" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:79" x14ac:dyDescent="0.3">
       <c r="P22">
         <v>3</v>
       </c>
@@ -3428,7 +3412,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="3:78" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:79" x14ac:dyDescent="0.3">
       <c r="V23">
         <v>3</v>
       </c>
@@ -3628,7 +3612,7 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <f ca="1">NOW()</f>
-        <v>44610.974865393517</v>
+        <v>44611.578886805553</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -3650,4 +3634,924 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC3AC6D-F45D-4043-A93C-B87EB4745C8B}">
+  <dimension ref="B2:AH10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="31" width="3" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <v>8</v>
+      </c>
+      <c r="J3" s="16">
+        <v>9</v>
+      </c>
+      <c r="K3">
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <v>11</v>
+      </c>
+      <c r="M3">
+        <v>12</v>
+      </c>
+      <c r="N3">
+        <v>13</v>
+      </c>
+      <c r="O3">
+        <v>14</v>
+      </c>
+      <c r="P3">
+        <v>15</v>
+      </c>
+      <c r="Q3">
+        <v>16</v>
+      </c>
+      <c r="R3">
+        <v>17</v>
+      </c>
+      <c r="S3">
+        <v>18</v>
+      </c>
+      <c r="T3">
+        <v>19</v>
+      </c>
+      <c r="U3">
+        <v>20</v>
+      </c>
+      <c r="V3">
+        <v>21</v>
+      </c>
+      <c r="W3">
+        <v>22</v>
+      </c>
+      <c r="X3">
+        <v>23</v>
+      </c>
+      <c r="Y3">
+        <v>24</v>
+      </c>
+      <c r="Z3">
+        <v>25</v>
+      </c>
+      <c r="AA3">
+        <v>26</v>
+      </c>
+      <c r="AB3">
+        <v>27</v>
+      </c>
+      <c r="AC3">
+        <v>28</v>
+      </c>
+      <c r="AD3">
+        <v>29</v>
+      </c>
+      <c r="AE3">
+        <v>30</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <f>MOD($D4*E$3,$AH$3)</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:AE10" si="0">MOD($D4*F$3,$AH$3)</f>
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AE4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:T10" si="1">MOD($D5*E$3,$AH$3)</f>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E4:AE10">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Planning/csapatsorsolás.xlsx
+++ b/Planning/csapatsorsolás.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Csabi\Documents\Személyes\Tanulmányok\ELTE IK\Prog Inf BsC\5.félév\Szakdolgozat\QuizProgram_LauncherConcept\Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Szakdolgozat\Szakdolgozat\QuizProgram_LauncherConcept\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10477329-D8B0-4219-94A0-185CB174EA63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E311E9E-C636-466F-BB08-9372266FE517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="564" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -297,17 +297,7 @@
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -852,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CA23"/>
   <sheetViews>
-    <sheetView topLeftCell="BI10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BN26" sqref="BN26:CO33"/>
+    <sheetView tabSelected="1" topLeftCell="BI1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CB16" sqref="CB16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3612,7 +3602,7 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <f ca="1">NOW()</f>
-        <v>44611.578886805553</v>
+        <v>44665.006664930559</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -3640,7 +3630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC3AC6D-F45D-4043-A93C-B87EB4745C8B}">
   <dimension ref="B2:AH10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
@@ -4545,10 +4535,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E4:AE10">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
